--- a/biology/Zoologie/Eisenia_(animal)/Eisenia_(animal).xlsx
+++ b/biology/Zoologie/Eisenia_(animal)/Eisenia_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eisenia est un genre de vers de terre de la famille des Lumbricidae.
-Certaines espèces de ce genre apprécient les milieux très humides ou ont adopté un comportement aquatique ou semi-aquatique (Selon Omodeo (1984) de l'Université de Padoue, l'espèce Eisenia spelaea ne semble vivre en Italie que dans la litière immergée de ruisseaux de montagne[1])
+Certaines espèces de ce genre apprécient les milieux très humides ou ont adopté un comportement aquatique ou semi-aquatique (Selon Omodeo (1984) de l'Université de Padoue, l'espèce Eisenia spelaea ne semble vivre en Italie que dans la litière immergée de ruisseaux de montagne)
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Robert J. Blakemore, 2007[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Robert J. Blakemore, 2007 :
 Eisenia altaica Perel, 1968
 Eisenia andrei
 Eisenia angusta Perel, 1994
@@ -571,9 +585,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont épigées et possèdent un pigment rouge foncé dont la fonction a été interprétée comme[3] : une adaptation photoprotectrice contre les UV[4],[5] ; comme un mécanisme de contrôle de l'étendue de l'exposition en surface[6] ; une pigmentation homochrome qui leur permet de se dissimuler dans la litière de feuilles mortes et les déjections animales dans lesquelles ils vivent, adaptation cryptique qui leur permet d'être moins exposés à la vue de leurs prédateurs[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont épigées et possèdent un pigment rouge foncé dont la fonction a été interprétée comme : une adaptation photoprotectrice contre les UV, ; comme un mécanisme de contrôle de l'étendue de l'exposition en surface ; une pigmentation homochrome qui leur permet de se dissimuler dans la litière de feuilles mortes et les déjections animales dans lesquelles ils vivent, adaptation cryptique qui leur permet d'être moins exposés à la vue de leurs prédateurs.
 </t>
         </is>
       </c>
@@ -602,7 +618,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eisenia vit de la décomposition de matières organiques. Ces vers sont facilement disponibles dans le commerce principalement pour la lombriculture, en raison de leur remarquable capacité à transformer des matières organiques en lombricompost. Ils sont également vendus comme appâts.
 </t>
@@ -633,9 +651,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Malm, 1877 : Om Daggmaskar, Lumbricina. Öfversigt af Sallskapet Hortikulturens Vänners i. Göteborg Förhandligar, vol. 1, p. 34–47 (August Wilhelm Malm baptisant ce genre en hommage au naturaliste suédois Gustav Eisen (en))[8]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Malm, 1877 : Om Daggmaskar, Lumbricina. Öfversigt af Sallskapet Hortikulturens Vänners i. Göteborg Förhandligar, vol. 1, p. 34–47 (August Wilhelm Malm baptisant ce genre en hommage au naturaliste suédois Gustav Eisen (en))</t>
         </is>
       </c>
     </row>
